--- a/R.xlsx
+++ b/R.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chanwit Chanton\Desktop\Datasci\270702\Dataset\Rainfall\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chanwit Chanton\Desktop\Datasci\270702\Flooding702\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9034C349-A8A5-4FD4-9662-1870F62296F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884A0302-D1E2-4A73-916A-0F22CB5CC315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -23,18 +23,52 @@
     <sheet name="8" sheetId="14" r:id="rId8"/>
     <sheet name="9" sheetId="8" r:id="rId9"/>
     <sheet name="10" sheetId="9" r:id="rId10"/>
-    <sheet name="11" sheetId="10" r:id="rId11"/>
-    <sheet name="12" sheetId="11" r:id="rId12"/>
-    <sheet name="13" sheetId="12" r:id="rId13"/>
-    <sheet name="14" sheetId="13" r:id="rId14"/>
-    <sheet name="15" sheetId="15" r:id="rId15"/>
+    <sheet name="11" sheetId="16" r:id="rId11"/>
+    <sheet name="12" sheetId="10" r:id="rId12"/>
+    <sheet name="13" sheetId="11" r:id="rId13"/>
+    <sheet name="14" sheetId="12" r:id="rId14"/>
+    <sheet name="15" sheetId="13" r:id="rId15"/>
+    <sheet name="16" sheetId="15" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3200" uniqueCount="242">
   <si>
     <t>รายงานสภาพน้ำฝน ภาคกลาง(ชัยนาท)</t>
   </si>
@@ -737,6 +771,30 @@
   <si>
     <t>จ. 4 ต.ค.</t>
   </si>
+  <si>
+    <t>วันที่ 26 - 1 กันยายน 2564</t>
+  </si>
+  <si>
+    <t>พฤ. 26 ส.ค.</t>
+  </si>
+  <si>
+    <t>ศ. 27 ส.ค.</t>
+  </si>
+  <si>
+    <t>ส. 28 ส.ค.</t>
+  </si>
+  <si>
+    <t>อา. 29 ส.ค.</t>
+  </si>
+  <si>
+    <t>จ. 30 ส.ค.</t>
+  </si>
+  <si>
+    <t>อ. 31 ส.ค.</t>
+  </si>
+  <si>
+    <t>พ. 1 ก.ย.</t>
+  </si>
 </sst>
 </file>
 
@@ -896,7 +954,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1076,6 +1134,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1237,8 +1301,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1594,10 +1660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:Q39"/>
+  <dimension ref="A2:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1781,56 +1847,56 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
-      <c r="A10">
+    <row r="10" spans="1:17" s="1" customFormat="1">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>40361</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>172.2</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>16.399999999999999</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
         <v>4.5</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <v>2</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
         <v>2.9</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="1">
         <v>6.5</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2099,109 +2165,109 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
-      <c r="A16">
+    <row r="16" spans="1:17" s="2" customFormat="1">
+      <c r="A16" s="2">
         <v>9</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>690201</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>182.3</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
         <v>1</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
         <v>10.7</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
         <v>5.5</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="2">
         <v>2.9</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="2">
         <v>2.5</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="2">
         <v>8.4</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q16" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
-      <c r="A17">
+    <row r="17" spans="1:17" s="1" customFormat="1">
+      <c r="A17" s="1">
         <v>10</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>540450</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>127.7</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>3</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>18</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>10.5</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
         <v>0.5</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
         <v>4.3</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="1">
         <v>0.5</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q17" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3369,6 +3435,12 @@
       </c>
       <c r="Q39" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" t="e" cm="1">
+        <f t="array" ref="A41">Datasci presentation ระดับเตือนภัย น้ำท่วม เฝ้าระวัง</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -5158,11 +5230,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E339AA2-588B-479D-B7A9-0A06E9E53577}">
   <dimension ref="A2:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5179,7 +5251,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="H4" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -5210,25 +5282,25 @@
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I7" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="J7" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="K7" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="L7" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="M7" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="N7" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="O7" t="s">
         <v>18</v>
@@ -5263,13 +5335,13 @@
         <v>212.7</v>
       </c>
       <c r="H8">
-        <v>44.6</v>
+        <v>25.1</v>
       </c>
       <c r="I8">
-        <v>14.2</v>
+        <v>18.7</v>
       </c>
       <c r="J8">
-        <v>7.8</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -5278,16 +5350,16 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="N8">
-        <v>7.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="O8">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="P8">
-        <v>7.2</v>
+        <v>11.6</v>
       </c>
       <c r="Q8" t="s">
         <v>25</v>
@@ -5316,31 +5388,31 @@
         <v>145.4</v>
       </c>
       <c r="H9">
-        <v>46.8</v>
+        <v>14.6</v>
       </c>
       <c r="I9">
-        <v>13.4</v>
+        <v>6.7</v>
       </c>
       <c r="J9">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="K9">
-        <v>2.8</v>
+        <v>6.4</v>
       </c>
       <c r="L9">
-        <v>67.7</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>29.7</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="O9">
-        <v>19.7</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="P9">
-        <v>67.7</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="Q9" t="s">
         <v>29</v>
@@ -5369,31 +5441,31 @@
         <v>172.2</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="N10">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="O10">
-        <v>5.8</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="P10">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="Q10" t="s">
         <v>33</v>
@@ -5422,31 +5494,31 @@
         <v>118.3</v>
       </c>
       <c r="H11">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="I11">
-        <v>22.6</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="J11">
-        <v>24.9</v>
+        <v>24.5</v>
       </c>
       <c r="K11">
-        <v>1.7</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="L11">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.2</v>
+        <v>6.7</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>44.5</v>
       </c>
       <c r="O11">
-        <v>8.3000000000000007</v>
+        <v>16.7</v>
       </c>
       <c r="P11">
-        <v>2.2999999999999998</v>
+        <v>51.2</v>
       </c>
       <c r="Q11" t="s">
         <v>37</v>
@@ -5475,31 +5547,31 @@
         <v>148.6</v>
       </c>
       <c r="H12">
-        <v>8.6</v>
+        <v>7.1</v>
       </c>
       <c r="I12">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>9.9</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="L12">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="O12">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="P12">
-        <v>0.8</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="Q12" t="s">
         <v>41</v>
@@ -5528,31 +5600,31 @@
         <v>165</v>
       </c>
       <c r="H13">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I13">
-        <v>31.5</v>
+        <v>71.5</v>
       </c>
       <c r="J13">
-        <v>29.5</v>
+        <v>37.5</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L13">
         <v>2</v>
       </c>
       <c r="M13">
+        <v>47</v>
+      </c>
+      <c r="N13">
         <v>2.5</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
       <c r="O13">
-        <v>9.6</v>
+        <v>23.3</v>
       </c>
       <c r="P13">
-        <v>4.5</v>
+        <v>51.5</v>
       </c>
       <c r="Q13" t="s">
         <v>45</v>
@@ -5581,13 +5653,13 @@
         <v>270</v>
       </c>
       <c r="H14">
-        <v>3.7</v>
+        <v>52.5</v>
       </c>
       <c r="I14">
-        <v>7</v>
+        <v>45.2</v>
       </c>
       <c r="J14">
-        <v>13.5</v>
+        <v>3</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -5596,16 +5668,16 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O14">
-        <v>5.0999999999999996</v>
+        <v>14</v>
       </c>
       <c r="P14">
-        <v>16.5</v>
+        <v>7.6</v>
       </c>
       <c r="Q14" t="s">
         <v>48</v>
@@ -5634,31 +5706,31 @@
         <v>198</v>
       </c>
       <c r="H15">
-        <v>8.6999999999999993</v>
+        <v>25.8</v>
       </c>
       <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>2.4</v>
+      </c>
+      <c r="K15">
+        <v>19</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <v>3.3</v>
+      </c>
+      <c r="O15">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="P15">
         <v>7.3</v>
-      </c>
-      <c r="J15">
-        <v>27.4</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>16.7</v>
-      </c>
-      <c r="M15">
-        <v>14.2</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>11.6</v>
-      </c>
-      <c r="P15">
-        <v>30.9</v>
       </c>
       <c r="Q15" t="s">
         <v>51</v>
@@ -5687,31 +5759,31 @@
         <v>182.3</v>
       </c>
       <c r="H16">
+        <v>13.9</v>
+      </c>
+      <c r="I16">
         <v>7.7</v>
       </c>
-      <c r="I16">
-        <v>0.8</v>
-      </c>
       <c r="J16">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K16">
-        <v>29.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L16">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>9.5</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="O16">
-        <v>6.9</v>
+        <v>5.8</v>
       </c>
       <c r="P16">
-        <v>2.1</v>
+        <v>12.4</v>
       </c>
       <c r="Q16" t="s">
         <v>54</v>
@@ -5740,7 +5812,7 @@
         <v>127.7</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -5749,22 +5821,22 @@
         <v>0.5</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>18.5</v>
+        <v>37</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O17">
-        <v>4.0999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="P17">
-        <v>18.5</v>
+        <v>39</v>
       </c>
       <c r="Q17" t="s">
         <v>59</v>
@@ -5793,31 +5865,31 @@
         <v>228.1</v>
       </c>
       <c r="H18">
-        <v>9.1</v>
+        <v>47.9</v>
       </c>
       <c r="I18">
-        <v>14.9</v>
+        <v>7.7</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>54.9</v>
       </c>
       <c r="K18">
-        <v>14.6</v>
+        <v>8.9</v>
       </c>
       <c r="L18">
-        <v>17.399999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="M18">
-        <v>10.7</v>
+        <v>6.5</v>
       </c>
       <c r="N18">
-        <v>0.5</v>
+        <v>19.8</v>
       </c>
       <c r="O18">
-        <v>8.6</v>
+        <v>20.3</v>
       </c>
       <c r="P18">
-        <v>28.6</v>
+        <v>34.1</v>
       </c>
       <c r="Q18" t="s">
         <v>63</v>
@@ -5846,31 +5918,31 @@
         <v>167.8</v>
       </c>
       <c r="H19">
-        <v>0.7</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="J19">
-        <v>13.2</v>
+        <v>0.8</v>
       </c>
       <c r="K19">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="L19">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>14.6</v>
+        <v>28.9</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>101.8</v>
       </c>
       <c r="O19">
-        <v>4.8</v>
+        <v>21.3</v>
       </c>
       <c r="P19">
-        <v>21</v>
+        <v>130.69999999999999</v>
       </c>
       <c r="Q19" t="s">
         <v>66</v>
@@ -5899,31 +5971,31 @@
         <v>90.8</v>
       </c>
       <c r="H20">
-        <v>48.7</v>
+        <v>54.4</v>
       </c>
       <c r="I20">
-        <v>1.5</v>
+        <v>73.5</v>
       </c>
       <c r="J20">
-        <v>15.5</v>
+        <v>35.4</v>
       </c>
       <c r="K20">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>5.5</v>
+        <v>72.8</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="O20">
-        <v>12.9</v>
+        <v>37.6</v>
       </c>
       <c r="P20">
-        <v>5.5</v>
+        <v>89</v>
       </c>
       <c r="Q20" t="s">
         <v>70</v>
@@ -5958,25 +6030,25 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L21">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>0.2</v>
       </c>
-      <c r="N21">
-        <v>1.4</v>
-      </c>
-      <c r="O21">
-        <v>0.6</v>
-      </c>
       <c r="P21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="s">
         <v>75</v>
@@ -6005,31 +6077,28 @@
         <v>74</v>
       </c>
       <c r="H22">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="K22">
-        <v>26</v>
+        <v>0.6</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>30.2</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P22">
-        <v>30.2</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="s">
         <v>78</v>
@@ -6061,28 +6130,28 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>25.6</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="s">
         <v>81</v>
@@ -6111,31 +6180,31 @@
         <v>74</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="I24">
-        <v>23.6</v>
+        <v>42.2</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="K24">
-        <v>0.2</v>
+        <v>9.6</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>64.2</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3</v>
+        <v>20.6</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>64.2</v>
       </c>
       <c r="Q24" t="s">
         <v>83</v>
@@ -6167,28 +6236,28 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="J25">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2</v>
+        <v>18.2</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>45.4</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="O25">
-        <v>2.6</v>
+        <v>15.3</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="Q25" t="s">
         <v>85</v>
@@ -6217,31 +6286,31 @@
         <v>74</v>
       </c>
       <c r="H26">
-        <v>45.4</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="I26">
-        <v>8.1999999999999993</v>
+        <v>5.4</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>8</v>
+        <v>0.2</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="M26">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="O26">
-        <v>8.9</v>
+        <v>15.8</v>
       </c>
       <c r="P26">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q26" t="s">
         <v>88</v>
@@ -6270,31 +6339,31 @@
         <v>74</v>
       </c>
       <c r="H27">
-        <v>91.6</v>
+        <v>80.8</v>
       </c>
       <c r="I27">
-        <v>0.8</v>
+        <v>4.2</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>16</v>
+        <v>0.2</v>
       </c>
       <c r="L27">
-        <v>17.2</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>48.8</v>
       </c>
       <c r="N27">
-        <v>12.2</v>
+        <v>2</v>
       </c>
       <c r="O27">
-        <v>19.600000000000001</v>
+        <v>28.5</v>
       </c>
       <c r="P27">
-        <v>29.4</v>
+        <v>50.8</v>
       </c>
       <c r="Q27" t="s">
         <v>91</v>
@@ -6376,31 +6445,31 @@
         <v>74</v>
       </c>
       <c r="H29">
-        <v>26.6</v>
+        <v>61.6</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="K29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29">
-        <v>1.6</v>
+        <v>99.2</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="O29">
-        <v>8.1999999999999993</v>
+        <v>27.1</v>
       </c>
       <c r="P29">
-        <v>1.6</v>
+        <v>126.6</v>
       </c>
       <c r="Q29" t="s">
         <v>97</v>
@@ -6441,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -6450,10 +6519,10 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q30" t="s">
         <v>100</v>
@@ -6482,31 +6551,31 @@
         <v>74</v>
       </c>
       <c r="H31">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>4.2</v>
+        <v>16.2</v>
       </c>
       <c r="J31">
-        <v>4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K31">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>8.9</v>
+        <v>4.5</v>
       </c>
       <c r="P31">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="s">
         <v>103</v>
@@ -6588,31 +6657,31 @@
         <v>74</v>
       </c>
       <c r="H33">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>79.8</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L33">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>40.200000000000003</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>5.8</v>
+        <v>12.2</v>
       </c>
       <c r="P33">
-        <v>41.4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Q33" t="s">
         <v>109</v>
@@ -6641,31 +6710,31 @@
         <v>74</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>22.5</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K34">
-        <v>0.5</v>
+        <v>9.5</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>4.9000000000000004</v>
+        <v>10.1</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="Q34" t="s">
         <v>112</v>
@@ -6694,16 +6763,16 @@
         <v>74</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -6715,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -6747,13 +6816,13 @@
         <v>74</v>
       </c>
       <c r="H36">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -6762,16 +6831,16 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>1.9</v>
+        <v>7.4</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q36" t="s">
         <v>116</v>
@@ -6856,16 +6925,16 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L38">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -6877,7 +6946,7 @@
         <v>0.1</v>
       </c>
       <c r="P38">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="s">
         <v>122</v>
@@ -6906,13 +6975,13 @@
         <v>74</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>42.6</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -6921,16 +6990,16 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>1.4</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="O39">
-        <v>0.4</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="P39">
-        <v>1.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="Q39" t="s">
         <v>125</v>
@@ -6942,11 +7011,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6963,7 +7032,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="H4" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -6994,25 +7063,25 @@
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="J7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="K7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="L7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="N7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="O7" t="s">
         <v>18</v>
@@ -7047,13 +7116,13 @@
         <v>212.7</v>
       </c>
       <c r="H8">
-        <v>14.5</v>
+        <v>44.6</v>
       </c>
       <c r="I8">
-        <v>34.200000000000003</v>
+        <v>14.2</v>
       </c>
       <c r="J8">
-        <v>3.5</v>
+        <v>7.8</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -7062,16 +7131,16 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>12.5</v>
+        <v>7.2</v>
       </c>
       <c r="O8">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="P8">
-        <v>16.7</v>
+        <v>7.2</v>
       </c>
       <c r="Q8" t="s">
         <v>25</v>
@@ -7100,31 +7169,31 @@
         <v>145.4</v>
       </c>
       <c r="H9">
-        <v>25.6</v>
+        <v>46.8</v>
       </c>
       <c r="I9">
-        <v>46.2</v>
+        <v>13.4</v>
       </c>
       <c r="J9">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>67.7</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>11</v>
+        <v>19.7</v>
       </c>
       <c r="P9">
-        <v>7.4</v>
+        <v>67.7</v>
       </c>
       <c r="Q9" t="s">
         <v>29</v>
@@ -7153,10 +7222,10 @@
         <v>172.2</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -7165,19 +7234,19 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N10">
-        <v>8.4</v>
+        <v>13</v>
       </c>
       <c r="O10">
-        <v>3.4</v>
+        <v>5.8</v>
       </c>
       <c r="P10">
-        <v>10.4</v>
+        <v>17</v>
       </c>
       <c r="Q10" t="s">
         <v>33</v>
@@ -7206,31 +7275,31 @@
         <v>118.3</v>
       </c>
       <c r="H11">
-        <v>6.4</v>
+        <v>8.4</v>
       </c>
       <c r="I11">
-        <v>37.4</v>
+        <v>22.6</v>
       </c>
       <c r="J11">
-        <v>0.5</v>
+        <v>24.9</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.8</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Q11" t="s">
         <v>37</v>
@@ -7259,16 +7328,16 @@
         <v>148.6</v>
       </c>
       <c r="H12">
-        <v>17.8</v>
+        <v>8.6</v>
       </c>
       <c r="I12">
-        <v>4.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>0.8</v>
@@ -7277,13 +7346,13 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>6.6</v>
+        <v>4.5</v>
       </c>
       <c r="P12">
-        <v>23.3</v>
+        <v>0.8</v>
       </c>
       <c r="Q12" t="s">
         <v>41</v>
@@ -7312,31 +7381,31 @@
         <v>165</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>31.5</v>
       </c>
       <c r="J13">
-        <v>1.5</v>
+        <v>29.5</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N13">
-        <v>35.5</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>8.9</v>
+        <v>9.6</v>
       </c>
       <c r="P13">
-        <v>41.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q13" t="s">
         <v>45</v>
@@ -7365,13 +7434,13 @@
         <v>270</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -7380,16 +7449,16 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="N14">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="P14">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="Q14" t="s">
         <v>48</v>
@@ -7418,31 +7487,31 @@
         <v>198</v>
       </c>
       <c r="H15">
-        <v>16.600000000000001</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I15">
-        <v>4.4000000000000004</v>
+        <v>7.3</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.8</v>
+        <v>16.7</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.2</v>
       </c>
       <c r="N15">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>4.3</v>
+        <v>11.6</v>
       </c>
       <c r="P15">
-        <v>1.5</v>
+        <v>30.9</v>
       </c>
       <c r="Q15" t="s">
         <v>51</v>
@@ -7471,31 +7540,31 @@
         <v>182.3</v>
       </c>
       <c r="H16">
-        <v>15.3</v>
+        <v>7.7</v>
       </c>
       <c r="I16">
-        <v>32.799999999999997</v>
+        <v>0.8</v>
       </c>
       <c r="J16">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>29.6</v>
       </c>
       <c r="L16">
-        <v>1.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>2.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="P16">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q16" t="s">
         <v>54</v>
@@ -7524,31 +7593,31 @@
         <v>127.7</v>
       </c>
       <c r="H17">
-        <v>12.5</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>25.5</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5</v>
+        <v>18.5</v>
       </c>
       <c r="N17">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>6.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P17">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="Q17" t="s">
         <v>59</v>
@@ -7577,31 +7646,31 @@
         <v>228.1</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>9.1</v>
       </c>
       <c r="I18">
-        <v>9.9</v>
+        <v>14.9</v>
       </c>
       <c r="J18">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="L18">
-        <v>3.7</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>10.7</v>
       </c>
       <c r="N18">
-        <v>16.5</v>
+        <v>0.5</v>
       </c>
       <c r="O18">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="P18">
-        <v>49.2</v>
+        <v>28.6</v>
       </c>
       <c r="Q18" t="s">
         <v>63</v>
@@ -7630,31 +7699,31 @@
         <v>167.8</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="I19">
-        <v>46.9</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="K19">
-        <v>1.1000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="L19">
-        <v>18.5</v>
+        <v>6.4</v>
       </c>
       <c r="M19">
-        <v>0.3</v>
+        <v>14.6</v>
       </c>
       <c r="N19">
-        <v>12.1</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>10.199999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="P19">
-        <v>30.9</v>
+        <v>21</v>
       </c>
       <c r="Q19" t="s">
         <v>66</v>
@@ -7683,19 +7752,19 @@
         <v>90.8</v>
       </c>
       <c r="H20">
-        <v>28.9</v>
+        <v>48.7</v>
       </c>
       <c r="I20">
-        <v>17.8</v>
+        <v>1.5</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -7704,10 +7773,10 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>7.8</v>
+        <v>12.9</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="Q20" t="s">
         <v>70</v>
@@ -7739,28 +7808,28 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="O21">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="s">
         <v>75</v>
@@ -7789,31 +7858,31 @@
         <v>74</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I22">
-        <v>26.6</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.4</v>
+        <v>30.2</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>7.9</v>
+        <v>11.8</v>
       </c>
       <c r="P22">
-        <v>1.4</v>
+        <v>30.2</v>
       </c>
       <c r="Q22" t="s">
         <v>78</v>
@@ -7842,10 +7911,10 @@
         <v>74</v>
       </c>
       <c r="H23">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>25.6</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -7854,19 +7923,19 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>14.6</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>6.2</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="P23">
-        <v>20.8</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="s">
         <v>81</v>
@@ -7895,31 +7964,31 @@
         <v>74</v>
       </c>
       <c r="H24">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>23.6</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L24">
-        <v>19.8</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>21.4</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="s">
         <v>83</v>
@@ -7951,16 +8020,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>1.2</v>
+        <v>20.8</v>
       </c>
       <c r="K25">
         <v>0.2</v>
       </c>
       <c r="L25">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -7969,10 +8038,10 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="P25">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="s">
         <v>85</v>
@@ -8001,31 +8070,31 @@
         <v>74</v>
       </c>
       <c r="H26">
-        <v>8.6</v>
+        <v>45.4</v>
       </c>
       <c r="I26">
-        <v>10.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J26">
-        <v>15.8</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>8.4</v>
+        <v>8.9</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Q26" t="s">
         <v>88</v>
@@ -8054,31 +8123,31 @@
         <v>74</v>
       </c>
       <c r="H27">
-        <v>19.399999999999999</v>
+        <v>91.6</v>
       </c>
       <c r="I27">
-        <v>5.8</v>
+        <v>0.8</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L27">
-        <v>9.1999999999999993</v>
+        <v>17.2</v>
       </c>
       <c r="M27">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="O27">
-        <v>5.9</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="P27">
-        <v>9.4</v>
+        <v>29.4</v>
       </c>
       <c r="Q27" t="s">
         <v>91</v>
@@ -8110,28 +8179,28 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>53.2</v>
+        <v>0</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>59.2</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="s">
         <v>94</v>
@@ -8160,31 +8229,31 @@
         <v>74</v>
       </c>
       <c r="H29">
-        <v>33.799999999999997</v>
+        <v>26.6</v>
       </c>
       <c r="I29">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L29">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>17.100000000000001</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="P29">
-        <v>7.6</v>
+        <v>1.6</v>
       </c>
       <c r="Q29" t="s">
         <v>97</v>
@@ -8266,31 +8335,31 @@
         <v>74</v>
       </c>
       <c r="H31">
-        <v>49.4</v>
+        <v>11.2</v>
       </c>
       <c r="I31">
-        <v>15</v>
+        <v>4.2</v>
       </c>
       <c r="J31">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>8.8000000000000007</v>
+        <v>8.9</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Q31" t="s">
         <v>103</v>
@@ -8334,7 +8403,7 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -8343,7 +8412,7 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="s">
         <v>106</v>
@@ -8372,31 +8441,31 @@
         <v>74</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="I33">
-        <v>8.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="N33">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>2.1</v>
+        <v>5.8</v>
       </c>
       <c r="P33">
-        <v>3.6</v>
+        <v>41.4</v>
       </c>
       <c r="Q33" t="s">
         <v>109</v>
@@ -8425,7 +8494,7 @@
         <v>74</v>
       </c>
       <c r="H34">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -8434,10 +8503,10 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L34">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -8446,10 +8515,10 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P34">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="s">
         <v>112</v>
@@ -8478,7 +8547,7 @@
         <v>74</v>
       </c>
       <c r="H35">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -8499,7 +8568,7 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -8531,7 +8600,7 @@
         <v>74</v>
       </c>
       <c r="H36">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -8543,7 +8612,7 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -8552,10 +8621,10 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="P36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="s">
         <v>116</v>
@@ -8640,28 +8709,28 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
         <v>0.4</v>
       </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
       <c r="M38">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="O38">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="P38">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="Q38" t="s">
         <v>122</v>
@@ -8690,28 +8759,31 @@
         <v>74</v>
       </c>
       <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0.2</v>
+      </c>
+      <c r="N39">
         <v>1.4</v>
       </c>
-      <c r="I39">
-        <v>5.4</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>3</v>
-      </c>
-      <c r="N39">
+      <c r="O39">
         <v>0.4</v>
       </c>
-      <c r="O39">
-        <v>1.5</v>
-      </c>
       <c r="P39">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="Q39" t="s">
         <v>125</v>
@@ -8723,11 +8795,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8744,7 +8816,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="H4" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -8775,25 +8847,25 @@
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="I7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="J7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="K7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="L7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="M7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="N7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="O7" t="s">
         <v>18</v>
@@ -8828,31 +8900,31 @@
         <v>212.7</v>
       </c>
       <c r="H8">
-        <v>17.2</v>
+        <v>14.5</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K8">
-        <v>12.2</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>46.7</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>32.4</v>
+        <v>4.2</v>
       </c>
       <c r="N8">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="O8">
-        <v>17.899999999999999</v>
+        <v>10.8</v>
       </c>
       <c r="P8">
-        <v>95.6</v>
+        <v>16.7</v>
       </c>
       <c r="Q8" t="s">
         <v>25</v>
@@ -8881,31 +8953,31 @@
         <v>145.4</v>
       </c>
       <c r="H9">
-        <v>8.1999999999999993</v>
+        <v>25.6</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>46.2</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K9">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>18.2</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>14.8</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>20.100000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="O9">
-        <v>11.6</v>
+        <v>11</v>
       </c>
       <c r="P9">
-        <v>53.1</v>
+        <v>7.4</v>
       </c>
       <c r="Q9" t="s">
         <v>29</v>
@@ -8934,31 +9006,31 @@
         <v>172.2</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>29.5</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>50</v>
+        <v>8.4</v>
       </c>
       <c r="O10">
-        <v>21.6</v>
+        <v>3.4</v>
       </c>
       <c r="P10">
-        <v>132.5</v>
+        <v>10.4</v>
       </c>
       <c r="Q10" t="s">
         <v>33</v>
@@ -8987,31 +9059,31 @@
         <v>118.3</v>
       </c>
       <c r="H11">
-        <v>1.9</v>
+        <v>6.4</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>37.4</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K11">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>54.2</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>13.1</v>
+        <v>5.8</v>
       </c>
       <c r="P11">
-        <v>77.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="s">
         <v>37</v>
@@ -9040,31 +9112,31 @@
         <v>148.6</v>
       </c>
       <c r="H12">
-        <v>5.8</v>
+        <v>17.8</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>19.3</v>
+        <v>0.8</v>
       </c>
       <c r="M12">
-        <v>17.8</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="O12">
-        <v>12.5</v>
+        <v>6.6</v>
       </c>
       <c r="P12">
-        <v>59.5</v>
+        <v>23.3</v>
       </c>
       <c r="Q12" t="s">
         <v>41</v>
@@ -9093,31 +9165,31 @@
         <v>165</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="I13">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="K13">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="M13">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>34</v>
+        <v>35.5</v>
       </c>
       <c r="O13">
-        <v>19.2</v>
+        <v>8.9</v>
       </c>
       <c r="P13">
-        <v>99</v>
+        <v>41.5</v>
       </c>
       <c r="Q13" t="s">
         <v>45</v>
@@ -9149,28 +9221,28 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>24.3</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="O14">
-        <v>16.600000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="P14">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Q14" t="s">
         <v>48</v>
@@ -9199,31 +9271,31 @@
         <v>198</v>
       </c>
       <c r="H15">
-        <v>11.7</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.3</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>46.5</v>
+        <v>0.8</v>
       </c>
       <c r="M15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>52.3</v>
+        <v>0.7</v>
       </c>
       <c r="O15">
-        <v>21.7</v>
+        <v>4.3</v>
       </c>
       <c r="P15">
-        <v>104.8</v>
+        <v>1.5</v>
       </c>
       <c r="Q15" t="s">
         <v>51</v>
@@ -9252,31 +9324,31 @@
         <v>182.3</v>
       </c>
       <c r="H16">
-        <v>1.7</v>
+        <v>15.3</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K16">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>25.8</v>
+        <v>1.6</v>
       </c>
       <c r="M16">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>5.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="O16">
-        <v>17.3</v>
+        <v>6.7</v>
       </c>
       <c r="P16">
-        <v>44.2</v>
+        <v>3.9</v>
       </c>
       <c r="Q16" t="s">
         <v>54</v>
@@ -9305,10 +9377,10 @@
         <v>127.7</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -9317,19 +9389,19 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N17">
-        <v>0.5</v>
+        <v>14.5</v>
       </c>
       <c r="O17">
-        <v>2.7</v>
+        <v>6.8</v>
       </c>
       <c r="P17">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Q17" t="s">
         <v>59</v>
@@ -9358,31 +9430,31 @@
         <v>228.1</v>
       </c>
       <c r="H18">
-        <v>12.8</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="K18">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>6.2</v>
+        <v>3.7</v>
       </c>
       <c r="M18">
-        <v>45.2</v>
+        <v>29</v>
       </c>
       <c r="N18">
-        <v>42.5</v>
+        <v>16.5</v>
       </c>
       <c r="O18">
-        <v>14</v>
+        <v>9.6</v>
       </c>
       <c r="P18">
-        <v>93.9</v>
+        <v>49.2</v>
       </c>
       <c r="Q18" t="s">
         <v>63</v>
@@ -9411,31 +9483,31 @@
         <v>167.8</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>46.9</v>
       </c>
       <c r="J19">
-        <v>41.8</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>3.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L19">
-        <v>18.899999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="M19">
-        <v>7.8</v>
+        <v>0.3</v>
       </c>
       <c r="N19">
-        <v>2.1</v>
+        <v>12.1</v>
       </c>
       <c r="O19">
-        <v>9.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="P19">
-        <v>28.8</v>
+        <v>30.9</v>
       </c>
       <c r="Q19" t="s">
         <v>66</v>
@@ -9464,31 +9536,31 @@
         <v>90.8</v>
       </c>
       <c r="H20">
-        <v>15.9</v>
+        <v>28.9</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>17.8</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>51.2</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>12.1</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>21.7</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>66.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>22.8</v>
+        <v>7.8</v>
       </c>
       <c r="P20">
-        <v>100.4</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="s">
         <v>70</v>
@@ -9517,31 +9589,31 @@
         <v>74</v>
       </c>
       <c r="H21">
-        <v>9.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="K21">
-        <v>10.8</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>11.4</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>9.9</v>
+        <v>2.1</v>
       </c>
       <c r="P21">
-        <v>11.4</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="s">
         <v>75</v>
@@ -9570,31 +9642,31 @@
         <v>74</v>
       </c>
       <c r="H22">
-        <v>35.6</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>26.6</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>1.4</v>
       </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>44.4</v>
-      </c>
       <c r="N22">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>18.2</v>
+        <v>7.9</v>
       </c>
       <c r="P22">
-        <v>81.400000000000006</v>
+        <v>1.4</v>
       </c>
       <c r="Q22" t="s">
         <v>78</v>
@@ -9623,31 +9695,31 @@
         <v>74</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I23">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>36.6</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.5999999999999996</v>
+        <v>2.6</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="Q23" t="s">
         <v>81</v>
@@ -9676,10 +9748,10 @@
         <v>74</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I24">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -9688,19 +9760,19 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>14.6</v>
+        <v>19.8</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="O24">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="P24">
-        <v>14.6</v>
+        <v>21.4</v>
       </c>
       <c r="Q24" t="s">
         <v>83</v>
@@ -9729,31 +9801,31 @@
         <v>74</v>
       </c>
       <c r="H25">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L25">
-        <v>13.6</v>
+        <v>4.8</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>8.1</v>
+        <v>3.7</v>
       </c>
       <c r="P25">
-        <v>30.6</v>
+        <v>4.8</v>
       </c>
       <c r="Q25" t="s">
         <v>85</v>
@@ -9782,31 +9854,31 @@
         <v>74</v>
       </c>
       <c r="H26">
-        <v>32.799999999999997</v>
+        <v>8.6</v>
       </c>
       <c r="I26">
-        <v>0.2</v>
+        <v>10.4</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="K26">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>18.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="P26">
-        <v>18.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="s">
         <v>88</v>
@@ -9835,31 +9907,31 @@
         <v>74</v>
       </c>
       <c r="H27">
-        <v>12.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>12.2</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="M27">
-        <v>7.4</v>
+        <v>0.2</v>
       </c>
       <c r="N27">
-        <v>29.2</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>10.9</v>
+        <v>5.9</v>
       </c>
       <c r="P27">
-        <v>36.6</v>
+        <v>9.4</v>
       </c>
       <c r="Q27" t="s">
         <v>91</v>
@@ -9888,31 +9960,31 @@
         <v>74</v>
       </c>
       <c r="H28">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K28">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M28">
-        <v>29.8</v>
+        <v>53.2</v>
       </c>
       <c r="N28">
-        <v>18.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="P28">
-        <v>48.4</v>
+        <v>59.2</v>
       </c>
       <c r="Q28" t="s">
         <v>94</v>
@@ -9941,31 +10013,31 @@
         <v>74</v>
       </c>
       <c r="H29">
-        <v>46.6</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>14.3</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="P29">
-        <v>49.8</v>
+        <v>7.6</v>
       </c>
       <c r="Q29" t="s">
         <v>97</v>
@@ -10009,16 +10081,16 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="s">
         <v>100</v>
@@ -10047,16 +10119,16 @@
         <v>74</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>49.4</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="K31">
-        <v>35.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -10065,13 +10137,13 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>36.6</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>10.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="P31">
-        <v>36.6</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="s">
         <v>103</v>
@@ -10109,22 +10181,22 @@
         <v>0</v>
       </c>
       <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
         <v>0.2</v>
       </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
       <c r="N32">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>8</v>
+        <v>0.2</v>
       </c>
       <c r="Q32" t="s">
         <v>106</v>
@@ -10153,13 +10225,13 @@
         <v>74</v>
       </c>
       <c r="H33">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -10168,16 +10240,16 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>13</v>
+        <v>3.6</v>
       </c>
       <c r="O33">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="P33">
-        <v>24.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q33" t="s">
         <v>109</v>
@@ -10206,7 +10278,7 @@
         <v>74</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -10218,19 +10290,19 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="P34">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="Q34" t="s">
         <v>112</v>
@@ -10259,7 +10331,7 @@
         <v>74</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -10277,13 +10349,13 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="O35">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="P35">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="s">
         <v>114</v>
@@ -10312,7 +10384,7 @@
         <v>74</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -10324,19 +10396,19 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>6.6</v>
+        <v>2.4</v>
       </c>
       <c r="P36">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q36" t="s">
         <v>116</v>
@@ -10383,13 +10455,13 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="O37">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="P37">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="s">
         <v>118</v>
@@ -10418,31 +10490,31 @@
         <v>74</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O38">
         <v>0.9</v>
       </c>
       <c r="P38">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q38" t="s">
         <v>122</v>
@@ -10471,31 +10543,28 @@
         <v>74</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>28.4</v>
-      </c>
-      <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>7.8</v>
+        <v>3</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O39">
-        <v>9.6</v>
+        <v>1.5</v>
       </c>
       <c r="P39">
-        <v>7.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q39" t="s">
         <v>125</v>
@@ -10507,11 +10576,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A2:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10528,7 +10597,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="H4" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -10559,25 +10628,25 @@
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="I7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="J7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="K7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="N7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="O7" t="s">
         <v>18</v>
@@ -10612,31 +10681,31 @@
         <v>212.7</v>
       </c>
       <c r="H8">
-        <v>18.2</v>
+        <v>17.2</v>
       </c>
       <c r="I8">
-        <v>22.4</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>48.6</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>22.2</v>
+        <v>12.2</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>46.7</v>
       </c>
       <c r="M8">
-        <v>3.6</v>
+        <v>32.4</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="O8">
-        <v>16.399999999999999</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="P8">
-        <v>3.6</v>
+        <v>95.6</v>
       </c>
       <c r="Q8" t="s">
         <v>25</v>
@@ -10665,31 +10734,31 @@
         <v>145.4</v>
       </c>
       <c r="H9">
-        <v>24</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I9">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>112.6</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="L9">
-        <v>7.4</v>
+        <v>18.2</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="O9">
-        <v>20.9</v>
+        <v>11.6</v>
       </c>
       <c r="P9">
-        <v>7.4</v>
+        <v>53.1</v>
       </c>
       <c r="Q9" t="s">
         <v>29</v>
@@ -10718,31 +10787,31 @@
         <v>172.2</v>
       </c>
       <c r="H10">
-        <v>14.2</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>35.299999999999997</v>
+        <v>22</v>
       </c>
       <c r="L10">
-        <v>5.5</v>
+        <v>29.5</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O10">
-        <v>20.3</v>
+        <v>21.6</v>
       </c>
       <c r="P10">
-        <v>5.5</v>
+        <v>132.5</v>
       </c>
       <c r="Q10" t="s">
         <v>33</v>
@@ -10770,29 +10839,32 @@
       <c r="G11">
         <v>118.3</v>
       </c>
+      <c r="H11">
+        <v>1.9</v>
+      </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>34.6</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>19.3</v>
+        <v>12.3</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>54.2</v>
       </c>
       <c r="O11">
-        <v>9</v>
+        <v>13.1</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="Q11" t="s">
         <v>37</v>
@@ -10821,31 +10893,31 @@
         <v>148.6</v>
       </c>
       <c r="H12">
-        <v>32.799999999999997</v>
+        <v>5.8</v>
       </c>
       <c r="I12">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>142.5</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>32.799999999999997</v>
+        <v>1.9</v>
       </c>
       <c r="L12">
-        <v>0.2</v>
+        <v>19.3</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>17.8</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>22.4</v>
       </c>
       <c r="O12">
-        <v>29.8</v>
+        <v>12.5</v>
       </c>
       <c r="P12">
-        <v>0.2</v>
+        <v>59.5</v>
       </c>
       <c r="Q12" t="s">
         <v>41</v>
@@ -10874,31 +10946,31 @@
         <v>165</v>
       </c>
       <c r="H13">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="I13">
+        <v>2.5</v>
+      </c>
+      <c r="J13">
         <v>0.5</v>
       </c>
-      <c r="J13">
-        <v>110.5</v>
-      </c>
       <c r="K13">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="O13">
-        <v>23.1</v>
+        <v>19.2</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="Q13" t="s">
         <v>45</v>
@@ -10927,31 +10999,31 @@
         <v>270</v>
       </c>
       <c r="H14">
-        <v>80.2</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J14">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="K14">
+        <v>24.3</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>4.5</v>
+      </c>
+      <c r="N14">
+        <v>22.5</v>
+      </c>
+      <c r="O14">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="P14">
         <v>27</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>26</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
       </c>
       <c r="Q14" t="s">
         <v>48</v>
@@ -10980,31 +11052,31 @@
         <v>198</v>
       </c>
       <c r="H15">
-        <v>45.5</v>
+        <v>11.7</v>
       </c>
       <c r="I15">
-        <v>4.0999999999999996</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>63.5</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>12.1</v>
+        <v>11.3</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>52.3</v>
       </c>
       <c r="O15">
-        <v>17.899999999999999</v>
+        <v>21.7</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>104.8</v>
       </c>
       <c r="Q15" t="s">
         <v>51</v>
@@ -11033,31 +11105,31 @@
         <v>182.3</v>
       </c>
       <c r="H16">
-        <v>83.3</v>
+        <v>1.7</v>
       </c>
       <c r="I16">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>71.8</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="O16">
-        <v>23.3</v>
+        <v>17.3</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>44.2</v>
       </c>
       <c r="Q16" t="s">
         <v>54</v>
@@ -11086,31 +11158,31 @@
         <v>127.7</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>49.5</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
+        <v>15</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
         <v>0.5</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
       <c r="O17">
-        <v>9.8000000000000007</v>
+        <v>2.7</v>
       </c>
       <c r="P17">
-        <v>0.5</v>
+        <v>15.5</v>
       </c>
       <c r="Q17" t="s">
         <v>59</v>
@@ -11139,31 +11211,31 @@
         <v>228.1</v>
       </c>
       <c r="H18">
-        <v>4.9000000000000004</v>
+        <v>12.8</v>
       </c>
       <c r="I18">
-        <v>60.3</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>190.2</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>7.8</v>
+        <v>0.6</v>
       </c>
       <c r="L18">
-        <v>1.6</v>
+        <v>6.2</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>45.2</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="O18">
-        <v>37.799999999999997</v>
+        <v>14</v>
       </c>
       <c r="P18">
-        <v>1.6</v>
+        <v>93.9</v>
       </c>
       <c r="Q18" t="s">
         <v>63</v>
@@ -11192,31 +11264,31 @@
         <v>167.8</v>
       </c>
       <c r="H19">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>21.8</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>150.30000000000001</v>
+        <v>41.8</v>
       </c>
       <c r="K19">
-        <v>13.5</v>
+        <v>3.1</v>
       </c>
       <c r="L19">
-        <v>2.2000000000000002</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="M19">
-        <v>16.899999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="O19">
-        <v>29.7</v>
+        <v>9.6</v>
       </c>
       <c r="P19">
-        <v>19.100000000000001</v>
+        <v>28.8</v>
       </c>
       <c r="Q19" t="s">
         <v>66</v>
@@ -11245,31 +11317,31 @@
         <v>90.8</v>
       </c>
       <c r="H20">
-        <v>14.5</v>
+        <v>15.9</v>
       </c>
       <c r="I20">
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>18.5</v>
+        <v>51.2</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>21.7</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="O20">
-        <v>13.6</v>
+        <v>22.8</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>100.4</v>
       </c>
       <c r="Q20" t="s">
         <v>70</v>
@@ -11298,31 +11370,31 @@
         <v>74</v>
       </c>
       <c r="H21">
-        <v>47.6</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I21">
-        <v>48</v>
+        <v>0.2</v>
       </c>
       <c r="J21">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="L21">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.7</v>
+        <v>9.9</v>
       </c>
       <c r="P21">
-        <v>0.2</v>
+        <v>11.4</v>
       </c>
       <c r="Q21" t="s">
         <v>75</v>
@@ -11351,10 +11423,10 @@
         <v>74</v>
       </c>
       <c r="H22">
-        <v>27</v>
+        <v>35.6</v>
       </c>
       <c r="I22">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -11363,19 +11435,19 @@
         <v>1.4</v>
       </c>
       <c r="L22">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6</v>
+        <v>44.4</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="O22">
-        <v>8.1</v>
+        <v>18.2</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="Q22" t="s">
         <v>78</v>
@@ -11407,13 +11479,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>36.6</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -11425,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -11457,31 +11529,31 @@
         <v>74</v>
       </c>
       <c r="H24">
-        <v>18.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>19.8</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6</v>
+        <v>14.6</v>
       </c>
       <c r="M24">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P24">
-        <v>5.4</v>
+        <v>14.6</v>
       </c>
       <c r="Q24" t="s">
         <v>83</v>
@@ -11510,31 +11582,31 @@
         <v>74</v>
       </c>
       <c r="H25">
-        <v>10.8</v>
+        <v>23.2</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>22.8</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O25">
-        <v>5.5</v>
+        <v>8.1</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>30.6</v>
       </c>
       <c r="Q25" t="s">
         <v>85</v>
@@ -11563,31 +11635,31 @@
         <v>74</v>
       </c>
       <c r="H26">
-        <v>17.399999999999999</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="I26">
-        <v>15.2</v>
+        <v>0.2</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>20.8</v>
+        <v>7.8</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>7.9</v>
+        <v>9.6</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="Q26" t="s">
         <v>88</v>
@@ -11616,31 +11688,31 @@
         <v>74</v>
       </c>
       <c r="H27">
-        <v>26.2</v>
+        <v>12.4</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>31</v>
+        <v>12.2</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>29.2</v>
       </c>
       <c r="O27">
-        <v>9.1</v>
+        <v>10.9</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>36.6</v>
       </c>
       <c r="Q27" t="s">
         <v>91</v>
@@ -11669,31 +11741,31 @@
         <v>74</v>
       </c>
       <c r="H28">
-        <v>21.2</v>
+        <v>3.6</v>
       </c>
       <c r="I28">
-        <v>21.4</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>14.2</v>
+        <v>2.6</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>29.8</v>
       </c>
       <c r="N28">
-        <v>0.2</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="O28">
-        <v>8.3000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="P28">
-        <v>0.2</v>
+        <v>48.4</v>
       </c>
       <c r="Q28" t="s">
         <v>94</v>
@@ -11722,16 +11794,16 @@
         <v>74</v>
       </c>
       <c r="H29">
-        <v>4.4000000000000004</v>
+        <v>46.6</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>22.2</v>
+        <v>13.6</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -11740,13 +11812,13 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="O29">
-        <v>4.3</v>
+        <v>14.3</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="Q29" t="s">
         <v>97</v>
@@ -11781,7 +11853,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -11790,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -11799,7 +11871,7 @@
         <v>0.4</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="Q30" t="s">
         <v>100</v>
@@ -11828,16 +11900,16 @@
         <v>74</v>
       </c>
       <c r="H31">
-        <v>15.8</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>20.100000000000001</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -11846,13 +11918,13 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>36.6</v>
       </c>
       <c r="O31">
-        <v>7.4</v>
+        <v>10.9</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>36.6</v>
       </c>
       <c r="Q31" t="s">
         <v>103</v>
@@ -11881,31 +11953,31 @@
         <v>74</v>
       </c>
       <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0.2</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>8</v>
+      </c>
+      <c r="O32">
         <v>1.2</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>2</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0.5</v>
-      </c>
       <c r="P32">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q32" t="s">
         <v>106</v>
@@ -11934,31 +12006,31 @@
         <v>74</v>
       </c>
       <c r="H33">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>27.8</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O33">
-        <v>4.0999999999999996</v>
+        <v>3.4</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>24.2</v>
       </c>
       <c r="Q33" t="s">
         <v>109</v>
@@ -11987,7 +12059,7 @@
         <v>74</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -11999,19 +12071,19 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O34">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="P34">
-        <v>2.8</v>
+        <v>12</v>
       </c>
       <c r="Q34" t="s">
         <v>112</v>
@@ -12040,7 +12112,7 @@
         <v>74</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -12058,13 +12130,13 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="O35">
-        <v>0.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Q35" t="s">
         <v>114</v>
@@ -12093,7 +12165,7 @@
         <v>74</v>
       </c>
       <c r="H36">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -12108,16 +12180,16 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O36">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="P36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q36" t="s">
         <v>116</v>
@@ -12146,7 +12218,7 @@
         <v>74</v>
       </c>
       <c r="H37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -12155,22 +12227,22 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="O37">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="P37">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q37" t="s">
         <v>118</v>
@@ -12199,31 +12271,31 @@
         <v>74</v>
       </c>
       <c r="H38">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M38">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="P38">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="Q38" t="s">
         <v>122</v>
@@ -12252,31 +12324,31 @@
         <v>74</v>
       </c>
       <c r="H39">
-        <v>40.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>10.6</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="L39">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>0.2</v>
+        <v>7.8</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39">
-        <v>10.7</v>
+        <v>9.6</v>
       </c>
       <c r="P39">
-        <v>24.2</v>
+        <v>7.8</v>
       </c>
       <c r="Q39" t="s">
         <v>125</v>
@@ -12288,11 +12360,1792 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A2:Q39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2" spans="1:17">
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="H4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>215</v>
+      </c>
+      <c r="I7" t="s">
+        <v>216</v>
+      </c>
+      <c r="J7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M7" t="s">
+        <v>220</v>
+      </c>
+      <c r="N7" t="s">
+        <v>221</v>
+      </c>
+      <c r="O7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>260311</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>212.7</v>
+      </c>
+      <c r="H8">
+        <v>18.2</v>
+      </c>
+      <c r="I8">
+        <v>22.4</v>
+      </c>
+      <c r="J8">
+        <v>48.6</v>
+      </c>
+      <c r="K8">
+        <v>22.2</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>3.6</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="P8">
+        <v>3.6</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>260301</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>145.4</v>
+      </c>
+      <c r="H9">
+        <v>24</v>
+      </c>
+      <c r="I9">
+        <v>2.6</v>
+      </c>
+      <c r="J9">
+        <v>112.6</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>7.4</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>20.9</v>
+      </c>
+      <c r="P9">
+        <v>7.4</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>40361</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>172.2</v>
+      </c>
+      <c r="H10">
+        <v>14.2</v>
+      </c>
+      <c r="I10">
+        <v>7.4</v>
+      </c>
+      <c r="J10">
+        <v>80</v>
+      </c>
+      <c r="K10">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="L10">
+        <v>5.5</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>20.3</v>
+      </c>
+      <c r="P10">
+        <v>5.5</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>690151</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <v>118.3</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>34.6</v>
+      </c>
+      <c r="K11">
+        <v>19.3</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>9</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>260271</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12">
+        <v>148.6</v>
+      </c>
+      <c r="H12">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="I12">
+        <v>0.2</v>
+      </c>
+      <c r="J12">
+        <v>142.5</v>
+      </c>
+      <c r="K12">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="L12">
+        <v>0.2</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>29.8</v>
+      </c>
+      <c r="P12">
+        <v>0.2</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>120081</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13">
+        <v>165</v>
+      </c>
+      <c r="H13">
+        <v>11.5</v>
+      </c>
+      <c r="I13">
+        <v>0.5</v>
+      </c>
+      <c r="J13">
+        <v>110.5</v>
+      </c>
+      <c r="K13">
+        <v>39</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>23.1</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>260281</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14">
+        <v>270</v>
+      </c>
+      <c r="H14">
+        <v>80.2</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>75</v>
+      </c>
+      <c r="K14">
+        <v>27</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>26</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>690251</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15">
+        <v>198</v>
+      </c>
+      <c r="H15">
+        <v>45.5</v>
+      </c>
+      <c r="I15">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J15">
+        <v>63.5</v>
+      </c>
+      <c r="K15">
+        <v>12.1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>690201</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16">
+        <v>182.3</v>
+      </c>
+      <c r="H16">
+        <v>83.3</v>
+      </c>
+      <c r="I16">
+        <v>0.7</v>
+      </c>
+      <c r="J16">
+        <v>71.8</v>
+      </c>
+      <c r="K16">
+        <v>7.5</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>23.3</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>540450</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17">
+        <v>127.7</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>12.5</v>
+      </c>
+      <c r="J17">
+        <v>49.5</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="P17">
+        <v>0.5</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>190351</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18">
+        <v>228.1</v>
+      </c>
+      <c r="H18">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I18">
+        <v>60.3</v>
+      </c>
+      <c r="J18">
+        <v>190.2</v>
+      </c>
+      <c r="K18">
+        <v>7.8</v>
+      </c>
+      <c r="L18">
+        <v>1.6</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="P18">
+        <v>1.6</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>190620</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19">
+        <v>167.8</v>
+      </c>
+      <c r="H19">
+        <v>3.5</v>
+      </c>
+      <c r="I19">
+        <v>21.8</v>
+      </c>
+      <c r="J19">
+        <v>150.30000000000001</v>
+      </c>
+      <c r="K19">
+        <v>13.5</v>
+      </c>
+      <c r="L19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M19">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>29.7</v>
+      </c>
+      <c r="P19">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>690251</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20">
+        <v>90.8</v>
+      </c>
+      <c r="H20">
+        <v>14.5</v>
+      </c>
+      <c r="I20">
+        <v>23.5</v>
+      </c>
+      <c r="J20">
+        <v>38.5</v>
+      </c>
+      <c r="K20">
+        <v>18.5</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>13.6</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>260001</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21">
+        <v>47.6</v>
+      </c>
+      <c r="I21">
+        <v>48</v>
+      </c>
+      <c r="J21">
+        <v>0.2</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0.2</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>13.7</v>
+      </c>
+      <c r="P21">
+        <v>0.2</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>260002</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22">
+        <v>27</v>
+      </c>
+      <c r="I22">
+        <v>27.2</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1.4</v>
+      </c>
+      <c r="L22">
+        <v>0.4</v>
+      </c>
+      <c r="M22">
+        <v>0.6</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>8.1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>260003</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>260004</v>
+      </c>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>19.8</v>
+      </c>
+      <c r="L24">
+        <v>0.6</v>
+      </c>
+      <c r="M24">
+        <v>4.8</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>7</v>
+      </c>
+      <c r="P24">
+        <v>5.4</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <v>120001</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25">
+        <v>10.8</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>22.8</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>5.5</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>690001</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I26">
+        <v>15.2</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>20.8</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>7.9</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>690002</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27">
+        <v>26.2</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>6.4</v>
+      </c>
+      <c r="K27">
+        <v>31</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>9.1</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28">
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>690003</v>
+      </c>
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28">
+        <v>21.2</v>
+      </c>
+      <c r="I28">
+        <v>21.4</v>
+      </c>
+      <c r="J28">
+        <v>1.2</v>
+      </c>
+      <c r="K28">
+        <v>14.2</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0.2</v>
+      </c>
+      <c r="O28">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="P28">
+        <v>0.2</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>40001</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>3.2</v>
+      </c>
+      <c r="K29">
+        <v>22.2</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>4.3</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30">
+        <v>23</v>
+      </c>
+      <c r="B30">
+        <v>40002</v>
+      </c>
+      <c r="C30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0.4</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31">
+        <v>24</v>
+      </c>
+      <c r="B31">
+        <v>40003</v>
+      </c>
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31">
+        <v>15.8</v>
+      </c>
+      <c r="I31">
+        <v>16</v>
+      </c>
+      <c r="J31">
+        <v>0.2</v>
+      </c>
+      <c r="K31">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>7.4</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>190001</v>
+      </c>
+      <c r="C32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32">
+        <v>1.2</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0.5</v>
+      </c>
+      <c r="P32">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>190002</v>
+      </c>
+      <c r="C33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H33">
+        <v>0.4</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>27.8</v>
+      </c>
+      <c r="K33">
+        <v>0.8</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34">
+        <v>27</v>
+      </c>
+      <c r="B34">
+        <v>540001</v>
+      </c>
+      <c r="C34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>2.8</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0.5</v>
+      </c>
+      <c r="P34">
+        <v>2.8</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35">
+        <v>28</v>
+      </c>
+      <c r="B35">
+        <v>540002</v>
+      </c>
+      <c r="C35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0.1</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36">
+        <v>29</v>
+      </c>
+      <c r="B36">
+        <v>540003</v>
+      </c>
+      <c r="C36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36">
+        <v>46.5</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>7</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>7.6</v>
+      </c>
+      <c r="P36">
+        <v>7</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37">
+        <v>30</v>
+      </c>
+      <c r="B37">
+        <v>540004</v>
+      </c>
+      <c r="C37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" t="s">
+        <v>74</v>
+      </c>
+      <c r="H37">
+        <v>50</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>2.5</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0.5</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>7.6</v>
+      </c>
+      <c r="P37">
+        <v>0.5</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38">
+        <v>31</v>
+      </c>
+      <c r="B38">
+        <v>420001</v>
+      </c>
+      <c r="C38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38">
+        <v>0.4</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0.8</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0.2</v>
+      </c>
+      <c r="P38">
+        <v>0.8</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39">
+        <v>32</v>
+      </c>
+      <c r="B39">
+        <v>420002</v>
+      </c>
+      <c r="C39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" t="s">
+        <v>121</v>
+      </c>
+      <c r="G39" t="s">
+        <v>74</v>
+      </c>
+      <c r="H39">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>10.6</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>24</v>
+      </c>
+      <c r="M39">
+        <v>0.2</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>10.7</v>
+      </c>
+      <c r="P39">
+        <v>24.2</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAF3798-B363-4BDF-8776-7E8F3F5D1759}">
   <dimension ref="A2:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13979,8 +15832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
